--- a/workspace/NiitProject/Mukesh Kumar Jangid.xlsx
+++ b/workspace/NiitProject/Mukesh Kumar Jangid.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>S.No</t>
   </si>
@@ -192,13 +192,55 @@
   </si>
   <si>
     <t>28/02/2017</t>
+  </si>
+  <si>
+    <t>Jackson Databind Library not downloaded properly</t>
+  </si>
+  <si>
+    <t>https://github.com/maxmind/GeoIP2-java/issues/77</t>
+  </si>
+  <si>
+    <t>Download again</t>
+  </si>
+  <si>
+    <t>product id was not going to product1 page by urlRewrtting</t>
+  </si>
+  <si>
+    <t>donot use url rewriting, give value directly by using /</t>
+  </si>
+  <si>
+    <t>Refrencing Video</t>
+  </si>
+  <si>
+    <t>Day 3/3/2017</t>
+  </si>
+  <si>
+    <t>Value is not gettiing in pageController page to display in single product page</t>
+  </si>
+  <si>
+    <t>java.lang.NullPointerException dao.ProductDaoImpl.getProduct(ProductDaoImpl.java:58)</t>
+  </si>
+  <si>
+    <t>GET http://localhost:8080/NiitProject/product11/?_=1488545897373 404 (Not Found)</t>
+  </si>
+  <si>
+    <t>DataTable Warning</t>
+  </si>
+  <si>
+    <t>Call method to initilize method in productDaoImpl.java</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>remove datatable and using ${}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +276,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -290,6 +338,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -299,7 +356,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,6 +407,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -825,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -990,14 +1050,68 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="36.75" customHeight="1"/>
+      <c r="B14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/workspace/NiitProject/Mukesh Kumar Jangid.xlsx
+++ b/workspace/NiitProject/Mukesh Kumar Jangid.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>S.No</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>remove datatable and using ${}</t>
+  </si>
+  <si>
+    <t>datatable warning ajax error</t>
+  </si>
+  <si>
+    <t>datatable warning ajax error (Int Id setter getter was implemented two times)</t>
+  </si>
+  <si>
+    <t>remove dublicate implemented method</t>
   </si>
 </sst>
 </file>
@@ -291,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -338,15 +347,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -356,7 +356,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,9 +407,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -684,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -885,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1035,82 +1034,162 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
